--- a/output/VENTOR_07088369000147.xlsx
+++ b/output/VENTOR_07088369000147.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>8.334851928592675</v>
+        <v>8.301479035242352</v>
       </c>
       <c r="C192">
-        <v>0.02494750533271328</v>
+        <v>0.02128323041471725</v>
       </c>
     </row>
   </sheetData>

--- a/output/VENTOR_07088369000147.xlsx
+++ b/output/VENTOR_07088369000147.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VENTOR HEDGE FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>0.002961831853615537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.03282739639324106</v>
-      </c>
-      <c r="C3">
         <v>0.02977736897966476</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.04771493392446557</v>
-      </c>
-      <c r="C4">
         <v>0.01441435188804396</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.06359913575164411</v>
-      </c>
-      <c r="C5">
         <v>0.01516080501752559</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.08204146229813536</v>
-      </c>
-      <c r="C6">
         <v>0.01733954638225432</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.09595606563569059</v>
-      </c>
-      <c r="C7">
         <v>0.01285958424181111</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.1057352309406663</v>
-      </c>
-      <c r="C8">
         <v>0.008922953767588782</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.1348089387061304</v>
-      </c>
-      <c r="C9">
         <v>0.02629355287949964</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1727133954064233</v>
-      </c>
-      <c r="C10">
         <v>0.03340161978589107</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.2045494446220646</v>
-      </c>
-      <c r="C11">
         <v>0.02714733995564877</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.2537528762902506</v>
-      </c>
-      <c r="C12">
         <v>0.04084799664128669</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.2910756008565287</v>
-      </c>
-      <c r="C13">
         <v>0.02976880473982479</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.3651086951919562</v>
-      </c>
-      <c r="C14">
         <v>0.05734218374687905</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.4300286425288531</v>
-      </c>
-      <c r="C15">
         <v>0.04755661403780609</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.4516982629860524</v>
-      </c>
-      <c r="C16">
         <v>0.01515327722309046</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.4729404462066642</v>
-      </c>
-      <c r="C17">
         <v>0.01463264354737048</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.4408405103764057</v>
-      </c>
-      <c r="C18">
         <v>-0.02179309822941389</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.4809818984613541</v>
-      </c>
-      <c r="C19">
         <v>0.02785970258044856</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.5178960911007489</v>
-      </c>
-      <c r="C20">
         <v>0.02492548536734063</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.5759983111256664</v>
-      </c>
-      <c r="C21">
         <v>0.03827812744598535</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.6247177865584626</v>
-      </c>
-      <c r="C22">
         <v>0.03091340586399371</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.6684016555143393</v>
-      </c>
-      <c r="C23">
         <v>0.02688705036485728</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.7089523632474084</v>
-      </c>
-      <c r="C24">
         <v>0.02430512316925748</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.7559376703754881</v>
-      </c>
-      <c r="C25">
         <v>0.02749363185220477</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.7933121876131426</v>
-      </c>
-      <c r="C26">
         <v>0.02128464914683592</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.8101440180892305</v>
-      </c>
-      <c r="C27">
         <v>0.009385889747668852</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.8423051992457176</v>
-      </c>
-      <c r="C28">
         <v>0.0177671946735134</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.8906434175994846</v>
-      </c>
-      <c r="C29">
         <v>0.0262378993304464</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.9581974062899739</v>
-      </c>
-      <c r="C30">
         <v>0.03573068726849682</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>1.003480644753772</v>
-      </c>
-      <c r="C31">
         <v>0.02312496090452498</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>1.045393814832535</v>
-      </c>
-      <c r="C32">
         <v>0.02092017718689476</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.9930614559431943</v>
-      </c>
-      <c r="C33">
         <v>-0.02558546843636833</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>1.031426532637211</v>
-      </c>
-      <c r="C34">
         <v>0.01924931947262043</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>1.054496130664048</v>
-      </c>
-      <c r="C35">
         <v>0.01135635360481779</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>1.043505351630391</v>
-      </c>
-      <c r="C36">
         <v>-0.005349622649376662</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>1.049709739493694</v>
-      </c>
-      <c r="C37">
         <v>0.003036149554662471</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>1.071442673045371</v>
-      </c>
-      <c r="C38">
         <v>0.0106029322752037</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>1.111907125302916</v>
-      </c>
-      <c r="C39">
         <v>0.01953443017472223</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>1.092134042190546</v>
-      </c>
-      <c r="C40">
         <v>-0.009362666982589585</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>1.140229051612184</v>
-      </c>
-      <c r="C41">
         <v>0.02298849330479835</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>1.162564690375829</v>
-      </c>
-      <c r="C42">
         <v>0.01043609736388706</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>1.188418390652033</v>
-      </c>
-      <c r="C43">
         <v>0.01195511070316768</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>1.227710319847316</v>
-      </c>
-      <c r="C44">
         <v>0.01795448683995748</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>1.248243357023722</v>
-      </c>
-      <c r="C45">
         <v>0.009217103765005064</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>1.210992708950689</v>
-      </c>
-      <c r="C46">
         <v>-0.01656877933461154</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>1.142866046920419</v>
-      </c>
-      <c r="C47">
         <v>-0.0308127031602029</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>1.267026569935811</v>
-      </c>
-      <c r="C48">
         <v>0.05794133664763024</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>1.515752898543376</v>
-      </c>
-      <c r="C49">
         <v>0.1097147831904797</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>1.635241840758804</v>
-      </c>
-      <c r="C50">
         <v>0.04749629515864329</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>1.710341903510647</v>
-      </c>
-      <c r="C51">
         <v>0.02849835699717729</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>1.758514208078731</v>
-      </c>
-      <c r="C52">
         <v>0.01777351577145603</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>1.80363517596757</v>
-      </c>
-      <c r="C53">
         <v>0.01635698223220849</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>1.931023682149754</v>
-      </c>
-      <c r="C54">
         <v>0.04543690536990797</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>2.002769824801935</v>
-      </c>
-      <c r="C55">
         <v>0.02447818592839157</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>2.08185103068893</v>
-      </c>
-      <c r="C56">
         <v>0.02633608651379449</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>2.109522791581663</v>
-      </c>
-      <c r="C57">
         <v>0.008978941751946579</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>2.167303916737078</v>
-      </c>
-      <c r="C58">
         <v>0.01858199120194404</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>2.178813213275427</v>
-      </c>
-      <c r="C59">
         <v>0.003633783445134542</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>2.202453613804106</v>
-      </c>
-      <c r="C60">
         <v>0.007436863679171513</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>2.229370048495073</v>
-      </c>
-      <c r="C61">
         <v>0.008404941315916403</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>2.260603589429057</v>
-      </c>
-      <c r="C62">
         <v>0.00967171320256055</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>2.278877835956462</v>
-      </c>
-      <c r="C63">
         <v>0.005604559409383647</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>2.325502268292537</v>
-      </c>
-      <c r="C64">
         <v>0.01421963082149236</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>2.315333771765846</v>
-      </c>
-      <c r="C65">
         <v>-0.003057732548747305</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>2.303525436552648</v>
-      </c>
-      <c r="C66">
         <v>-0.003561733456148519</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>2.343391417599878</v>
-      </c>
-      <c r="C67">
         <v>0.01206770821441938</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>2.34351400671749</v>
-      </c>
-      <c r="C68">
         <v>3.666609807218002e-05</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>2.38135022706557</v>
-      </c>
-      <c r="C69">
         <v>0.01131630382647186</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>2.380803253131167</v>
-      </c>
-      <c r="C70">
         <v>-0.0001617619878663268</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>2.431695066807131</v>
-      </c>
-      <c r="C71">
         <v>0.01505317223912095</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>2.336862488586658</v>
-      </c>
-      <c r="C72">
         <v>-0.02763432542061661</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>2.388787595596126</v>
-      </c>
-      <c r="C73">
         <v>0.01556105688714249</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>2.355259718092293</v>
-      </c>
-      <c r="C74">
         <v>-0.009893767773289874</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>2.387388011887107</v>
-      </c>
-      <c r="C75">
         <v>0.009575501300710609</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>2.438993402539239</v>
-      </c>
-      <c r="C76">
         <v>0.01523456730408124</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>2.423293429016519</v>
-      </c>
-      <c r="C77">
         <v>-0.004565281663851839</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>2.486954302420165</v>
-      </c>
-      <c r="C78">
         <v>0.01859638232120098</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>2.490539517168237</v>
-      </c>
-      <c r="C79">
         <v>0.001028179447486011</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>2.5056600232555</v>
-      </c>
-      <c r="C80">
         <v>0.004331853575326505</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>2.679701713598934</v>
-      </c>
-      <c r="C81">
         <v>0.04964591237852289</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>2.767082350445954</v>
-      </c>
-      <c r="C82">
         <v>0.02374666308524165</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>2.735739611655399</v>
-      </c>
-      <c r="C83">
         <v>-0.008320162893928784</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>2.884404960792652</v>
-      </c>
-      <c r="C84">
         <v>0.03979542596422436</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>2.903770496629686</v>
-      </c>
-      <c r="C85">
         <v>0.004985457497995283</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>2.952844938945204</v>
-      </c>
-      <c r="C86">
         <v>0.01257103673432813</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>3.048923396768196</v>
-      </c>
-      <c r="C87">
         <v>0.02430615399971403</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>3.161697212362852</v>
-      </c>
-      <c r="C88">
         <v>0.02785279061704915</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>3.349608212072675</v>
-      </c>
-      <c r="C89">
         <v>0.04515249190921655</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>3.495336837970763</v>
-      </c>
-      <c r="C90">
         <v>0.03350385110401599</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>3.568477739539382</v>
-      </c>
-      <c r="C91">
         <v>0.01627039401159447</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>3.691352603029753</v>
-      </c>
-      <c r="C92">
         <v>0.02689623776141237</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>3.71846163556333</v>
-      </c>
-      <c r="C93">
         <v>0.005778510981261364</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>3.761045944136582</v>
-      </c>
-      <c r="C94">
         <v>0.009025040757413949</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>3.83644287932987</v>
-      </c>
-      <c r="C95">
         <v>0.01583621247892841</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>3.884314274385167</v>
-      </c>
-      <c r="C96">
         <v>0.009898058604163484</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>3.940431338426016</v>
-      </c>
-      <c r="C97">
         <v>0.01148924104559446</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>3.969759184755783</v>
-      </c>
-      <c r="C98">
         <v>0.005936292667739096</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>3.961587955427188</v>
-      </c>
-      <c r="C99">
         <v>-0.001644190196108397</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>3.939034708671639</v>
-      </c>
-      <c r="C100">
         <v>-0.004545570280756417</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>4.01614168820674</v>
-      </c>
-      <c r="C101">
         <v>0.01561175089531597</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>3.937425788043711</v>
-      </c>
-      <c r="C102">
         <v>-0.01569251928192028</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>3.947719138386572</v>
-      </c>
-      <c r="C103">
         <v>0.002084760517876871</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>3.997674449976108</v>
-      </c>
-      <c r="C104">
         <v>0.01009663446778153</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>3.977002576931564</v>
-      </c>
-      <c r="C105">
         <v>-0.004136298442697361</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>3.922050257205754</v>
-      </c>
-      <c r="C106">
         <v>-0.01104124799543282</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>3.951998335545025</v>
-      </c>
-      <c r="C107">
         <v>0.006084472277670949</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>4.008157641137245</v>
-      </c>
-      <c r="C108">
         <v>0.01134073595887819</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>4.039450655024672</v>
-      </c>
-      <c r="C109">
         <v>0.006248408322929944</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>4.078515228177735</v>
-      </c>
-      <c r="C110">
         <v>0.007751752289530289</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>4.064942889717943</v>
-      </c>
-      <c r="C111">
         <v>-0.002672501282360407</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>4.080228915730271</v>
-      </c>
-      <c r="C112">
         <v>0.003018005601476581</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>4.079581901198686</v>
-      </c>
-      <c r="C113">
         <v>-0.0001273593261874595</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>4.120520364710995</v>
-      </c>
-      <c r="C114">
         <v>0.008059415973320272</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>4.120571960452062</v>
-      </c>
-      <c r="C115">
         <v>1.007626908844372e-05</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>4.18711136418844</v>
-      </c>
-      <c r="C116">
         <v>0.01299452566047021</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>4.31581132776618</v>
-      </c>
-      <c r="C117">
         <v>0.02481149035401042</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>4.302895751888292</v>
-      </c>
-      <c r="C118">
         <v>-0.002429652800208681</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>4.231443921583533</v>
-      </c>
-      <c r="C119">
         <v>-0.0134741155866237</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>4.282328153442584</v>
-      </c>
-      <c r="C120">
         <v>0.00972661326811064</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>4.308079942283665</v>
-      </c>
-      <c r="C121">
         <v>0.004875083124909141</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>4.457510464138154</v>
-      </c>
-      <c r="C122">
         <v>0.02815152060241966</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>4.571980440487809</v>
-      </c>
-      <c r="C123">
         <v>0.0209747607635109</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>4.568639517788568</v>
-      </c>
-      <c r="C124">
         <v>-0.0005995934003940606</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>4.482489498445088</v>
-      </c>
-      <c r="C125">
         <v>-0.01547056854161244</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>4.679750650780824</v>
-      </c>
-      <c r="C126">
         <v>0.03598021526382911</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>4.643053869203023</v>
-      </c>
-      <c r="C127">
         <v>-0.006460984616068588</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>4.922474937418009</v>
-      </c>
-      <c r="C128">
         <v>0.04951593138954902</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>4.723248912920076</v>
-      </c>
-      <c r="C129">
         <v>-0.03363898143987565</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>4.453230873119082</v>
-      </c>
-      <c r="C130">
         <v>-0.04717915364321068</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>4.527338702506933</v>
-      </c>
-      <c r="C131">
         <v>0.0135897105976488</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>4.602027377842407</v>
-      </c>
-      <c r="C132">
         <v>0.01351259247087544</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>4.69527151618713</v>
-      </c>
-      <c r="C133">
         <v>0.01664471307540016</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>4.985181880402845</v>
-      </c>
-      <c r="C134">
         <v>0.0509036950023769</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>5.088250674954019</v>
-      </c>
-      <c r="C135">
         <v>0.01722066206352912</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>4.852635277091284</v>
-      </c>
-      <c r="C136">
         <v>-0.03870001588995253</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>5.027062556980554</v>
-      </c>
-      <c r="C137">
         <v>0.02980320345127652</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>5.011207205443705</v>
-      </c>
-      <c r="C138">
         <v>-0.002630693042746879</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>5.320150391738695</v>
-      </c>
-      <c r="C139">
         <v>0.05139453286774298</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>5.395611624678006</v>
-      </c>
-      <c r="C140">
         <v>0.01193978438202192</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>5.514397427223666</v>
-      </c>
-      <c r="C141">
         <v>0.01857301686164226</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>5.623212451273287</v>
-      </c>
-      <c r="C142">
         <v>0.01670377425775138</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>5.819854750111684</v>
-      </c>
-      <c r="C143">
         <v>0.02968986730911727</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>5.715377805383032</v>
-      </c>
-      <c r="C144">
         <v>-0.01531952637656131</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>5.806305058637476</v>
-      </c>
-      <c r="C145">
         <v>0.0135401545362881</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>5.86976132144964</v>
-      </c>
-      <c r="C146">
         <v>0.009323158786665786</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>6.04305546433853</v>
-      </c>
-      <c r="C147">
         <v>0.02522564246123205</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>6.073833603931989</v>
-      </c>
-      <c r="C148">
         <v>0.004369998184637236</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>6.16050420854841</v>
-      </c>
-      <c r="C149">
         <v>0.01225228206785145</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>5.950868152499287</v>
-      </c>
-      <c r="C150">
         <v>-0.02927671710587831</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>6.114028458595945</v>
-      </c>
-      <c r="C151">
         <v>0.02347337088216683</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>6.244215442940083</v>
-      </c>
-      <c r="C152">
         <v>0.01830003704677807</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>6.375775720796934</v>
-      </c>
-      <c r="C153">
         <v>0.01816073512626737</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>6.514637288340534</v>
-      </c>
-      <c r="C154">
         <v>0.0188267068848178</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>6.415593552383512</v>
-      </c>
-      <c r="C155">
         <v>-0.01318010865417218</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>6.446047249292208</v>
-      </c>
-      <c r="C156">
         <v>0.004106710635308319</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>6.575191389182835</v>
-      </c>
-      <c r="C157">
         <v>0.01734398608643017</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>6.671434973070273</v>
-      </c>
-      <c r="C158">
         <v>0.01270510260966762</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>6.718709472357729</v>
-      </c>
-      <c r="C159">
         <v>0.006162406310345814</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>6.976831346027526</v>
-      </c>
-      <c r="C160">
         <v>0.03344106609973907</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>7.010793159468157</v>
-      </c>
-      <c r="C161">
         <v>0.004257556912939275</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>7.070157505846122</v>
-      </c>
-      <c r="C162">
         <v>0.007410545397467994</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>7.211559671311498</v>
-      </c>
-      <c r="C163">
         <v>0.01752161161203381</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>7.253472841390263</v>
-      </c>
-      <c r="C164">
         <v>0.005104166779082764</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>7.236043721285716</v>
-      </c>
-      <c r="C165">
         <v>-0.00211173168428469</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>7.340108097016142</v>
-      </c>
-      <c r="C166">
         <v>0.01263523838047087</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>7.681286707194268</v>
-      </c>
-      <c r="C167">
         <v>0.04090817603433594</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>7.588064821974507</v>
-      </c>
-      <c r="C168">
         <v>-0.01073825670824879</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>7.459857873426392</v>
-      </c>
-      <c r="C169">
         <v>-0.01492850266104984</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>7.671511185100016</v>
-      </c>
-      <c r="C170">
         <v>0.0250185422545286</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>7.605081963871758</v>
-      </c>
-      <c r="C171">
         <v>-0.007660627981706525</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>7.403299193166676</v>
-      </c>
-      <c r="C172">
         <v>-0.02344925609683468</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>7.470802176907027</v>
-      </c>
-      <c r="C173">
         <v>0.008032914476642894</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>7.550993872808819</v>
-      </c>
-      <c r="C174">
         <v>0.009466836106786891</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>7.631976440833224</v>
-      </c>
-      <c r="C175">
         <v>0.009470544503829004</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>7.765664550683315</v>
-      </c>
-      <c r="C176">
         <v>0.01548754341099512</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>7.409664670023082</v>
-      </c>
-      <c r="C177">
         <v>-0.04061299386964123</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>7.65660917319105</v>
-      </c>
-      <c r="C178">
         <v>0.02936436978851509</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>7.914062763855844</v>
-      </c>
-      <c r="C179">
         <v>0.02974069702281468</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>7.816097221342874</v>
-      </c>
-      <c r="C180">
         <v>-0.01098999918535393</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>8.168845585664339</v>
-      </c>
-      <c r="C181">
         <v>0.04001185053489409</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>8.325680293292249</v>
-      </c>
-      <c r="C182">
         <v>0.01710517492770558</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>8.214569948021229</v>
-      </c>
-      <c r="C183">
         <v>-0.01191444932451091</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>7.395864089334678</v>
-      </c>
-      <c r="C184">
         <v>-0.088849057883853</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>7.818732345813167</v>
-      </c>
-      <c r="C185">
         <v>0.05036625795499261</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>8.154572766093958</v>
-      </c>
-      <c r="C186">
         <v>0.03808261857955531</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>8.310133826945719</v>
-      </c>
-      <c r="C187">
         <v>0.01699271662659307</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>8.564711348906647</v>
-      </c>
-      <c r="C188">
         <v>0.02734413131894198</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>8.596926685898223</v>
-      </c>
-      <c r="C189">
         <v>0.003368145238931808</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>8.327957989250953</v>
-      </c>
-      <c r="C190">
         <v>-0.02802654489822187</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>8.107639054706945</v>
-      </c>
-      <c r="C191">
         <v>-0.02361920313083432</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>8.301479035242352</v>
-      </c>
-      <c r="C192">
-        <v>0.02128323041471725</v>
+        <v>0.02270175567041988</v>
       </c>
     </row>
   </sheetData>
